--- a/Data/Labor_Confidence_and_Mobility.xlsx
+++ b/Data/Labor_Confidence_and_Mobility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1F589D119105B57D/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{F0D7C824-D95F-4A1C-8998-8C22AB2E1490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDAA94E4-E190-4564-A0FD-197DF2C2129A}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{F0D7C824-D95F-4A1C-8998-8C22AB2E1490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA9A68F-D707-4600-A2C3-98165FB71882}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5390" yWindow="3710" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>observation_date</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Quits_Rate</t>
+  </si>
+  <si>
+    <t>Total_Seperations</t>
   </si>
 </sst>
 </file>
@@ -410,3240 +413,4120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:D293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>36861</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>2882</v>
       </c>
       <c r="C2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="4">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>36892</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>3245</v>
       </c>
       <c r="C3">
         <v>2220</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="4">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>36923</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>3053</v>
       </c>
       <c r="C4">
         <v>1855</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="4">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>36951</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>3054</v>
       </c>
       <c r="C5">
         <v>2133</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="4">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>36982</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>3163</v>
       </c>
       <c r="C6">
         <v>1883</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="4">
+        <v>5414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>37012</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>2993</v>
       </c>
       <c r="C7">
         <v>2029</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="4">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>37043</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>2878</v>
       </c>
       <c r="C8">
         <v>2015</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="4">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>37073</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>2947</v>
       </c>
       <c r="C9">
         <v>2038</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="4">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>37104</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>2928</v>
       </c>
       <c r="C10">
         <v>2011</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="4">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>37135</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>2703</v>
       </c>
       <c r="C11">
         <v>2107</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="4">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>37165</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>2795</v>
       </c>
       <c r="C12">
         <v>2319</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="4">
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>37196</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>2560</v>
       </c>
       <c r="C13">
         <v>2255</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="4">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>37226</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>2559</v>
       </c>
       <c r="C14">
         <v>1922</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="4">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>37257</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>2845</v>
       </c>
       <c r="C15">
         <v>1907</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="4">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>37288</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>2572</v>
       </c>
       <c r="C16">
         <v>1978</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="4">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>37316</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>2493</v>
       </c>
       <c r="C17">
         <v>1883</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="4">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>37347</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>2624</v>
       </c>
       <c r="C18">
         <v>1956</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="4">
+        <v>4979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>37377</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>2537</v>
       </c>
       <c r="C19">
         <v>1967</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="4">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>37408</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>2522</v>
       </c>
       <c r="C20">
         <v>2015</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="4">
+        <v>4887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>37438</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>2561</v>
       </c>
       <c r="C21">
         <v>2102</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="4">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>37469</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>2561</v>
       </c>
       <c r="C22">
         <v>1923</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="4">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>37500</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>2521</v>
       </c>
       <c r="C23">
         <v>2022</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="4">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>37530</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>2423</v>
       </c>
       <c r="C24">
         <v>1935</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="4">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>37561</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>2403</v>
       </c>
       <c r="C25">
         <v>1944</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="4">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>37591</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>2501</v>
       </c>
       <c r="C26">
         <v>2007</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="4">
+        <v>4928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>37622</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>2429</v>
       </c>
       <c r="C27">
         <v>2109</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="4">
+        <v>4953</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>37653</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>2490</v>
       </c>
       <c r="C28">
         <v>2015</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="4">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>37681</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>2394</v>
       </c>
       <c r="C29">
         <v>1949</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="4">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>37712</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>2279</v>
       </c>
       <c r="C30">
         <v>1998</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="4">
+        <v>4653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>37742</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>2291</v>
       </c>
       <c r="C31">
         <v>2072</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="4">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>37773</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>2315</v>
       </c>
       <c r="C32">
         <v>2076</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32" s="4">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>37803</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>2271</v>
       </c>
       <c r="C33">
         <v>2062</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" s="4">
+        <v>4661</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>37834</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>2195</v>
       </c>
       <c r="C34">
         <v>2162</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" s="4">
+        <v>4679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>37865</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>2354</v>
       </c>
       <c r="C35">
         <v>1932</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" s="4">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>37895</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>2415</v>
       </c>
       <c r="C36">
         <v>1969</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" s="4">
+        <v>4749</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>37926</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>2411</v>
       </c>
       <c r="C37">
         <v>1951</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37" s="4">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37956</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>2444</v>
       </c>
       <c r="C38">
         <v>2007</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38" s="4">
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>37987</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>2354</v>
       </c>
       <c r="C39">
         <v>2037</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" s="4">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>38018</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>2448</v>
       </c>
       <c r="C40">
         <v>1985</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40" s="4">
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>38047</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>2582</v>
       </c>
       <c r="C41">
         <v>2065</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41" s="4">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>38078</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>2534</v>
       </c>
       <c r="C42">
         <v>2010</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42" s="4">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>38108</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>2428</v>
       </c>
       <c r="C43">
         <v>1914</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43" s="4">
+        <v>4688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>38139</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>2659</v>
       </c>
       <c r="C44">
         <v>1887</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44" s="4">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>38169</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>2609</v>
       </c>
       <c r="C45">
         <v>1885</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45" s="4">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>38200</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>2586</v>
       </c>
       <c r="C46">
         <v>1974</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46" s="4">
+        <v>4904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>38231</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>2531</v>
       </c>
       <c r="C47">
         <v>2027</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47" s="4">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>38261</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>2550</v>
       </c>
       <c r="C48">
         <v>1903</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48" s="4">
+        <v>4786</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>38292</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>2789</v>
       </c>
       <c r="C49">
         <v>2037</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49" s="4">
+        <v>5134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>38322</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>2695</v>
       </c>
       <c r="C50">
         <v>1951</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50" s="4">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>38353</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>2732</v>
       </c>
       <c r="C51">
         <v>2008</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51" s="4">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>38384</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>2651</v>
       </c>
       <c r="C52">
         <v>2068</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52" s="4">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>38412</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>2747</v>
       </c>
       <c r="C53">
         <v>2188</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53" s="4">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>38443</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>2741</v>
       </c>
       <c r="C54">
         <v>1957</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54" s="4">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>38473</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>2763</v>
       </c>
       <c r="C55">
         <v>2021</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55" s="4">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>38504</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>2754</v>
       </c>
       <c r="C56">
         <v>2015</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D56" s="4">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>38534</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>2735</v>
       </c>
       <c r="C57">
         <v>1898</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D57" s="4">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>38565</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>2957</v>
       </c>
       <c r="C58">
         <v>1905</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D58" s="4">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>38596</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>3046</v>
       </c>
       <c r="C59">
         <v>2032</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D59" s="4">
+        <v>5404</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>38626</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>2863</v>
       </c>
       <c r="C60">
         <v>1873</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D60" s="4">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>38657</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>2895</v>
       </c>
       <c r="C61">
         <v>1769</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D61" s="4">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>38687</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>2849</v>
       </c>
       <c r="C62">
         <v>1923</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D62" s="4">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>38718</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>2945</v>
       </c>
       <c r="C63">
         <v>1784</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D63" s="4">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>38749</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>2965</v>
       </c>
       <c r="C64">
         <v>1882</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64" s="4">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>38777</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>2956</v>
       </c>
       <c r="C65">
         <v>1888</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D65" s="4">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>38808</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>2778</v>
       </c>
       <c r="C66">
         <v>1853</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66" s="4">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>38838</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>3002</v>
       </c>
       <c r="C67">
         <v>1991</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D67" s="4">
+        <v>5428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>38869</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>3042</v>
       </c>
       <c r="C68">
         <v>1817</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D68" s="4">
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>38899</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>3047</v>
       </c>
       <c r="C69">
         <v>1860</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69" s="4">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>38930</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>3056</v>
       </c>
       <c r="C70">
         <v>1775</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70" s="4">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>38961</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>2888</v>
       </c>
       <c r="C71">
         <v>1831</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71" s="4">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>38991</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>2983</v>
       </c>
       <c r="C72">
         <v>1898</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72" s="4">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>39022</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>3043</v>
       </c>
       <c r="C73">
         <v>1926</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73" s="4">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>39052</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>2999</v>
       </c>
       <c r="C74">
         <v>1772</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D74" s="4">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>39083</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>2956</v>
       </c>
       <c r="C75">
         <v>1922</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D75" s="4">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>39114</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>2933</v>
       </c>
       <c r="C76">
         <v>1850</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D76" s="4">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>39142</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>2997</v>
       </c>
       <c r="C77">
         <v>1882</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D77" s="4">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>39173</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>2911</v>
       </c>
       <c r="C78">
         <v>2000</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D78" s="4">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>39203</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79">
         <v>3010</v>
       </c>
       <c r="C79">
         <v>1967</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D79" s="4">
+        <v>5303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>39234</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>2910</v>
       </c>
       <c r="C80">
         <v>1845</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80" s="4">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>39264</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81">
         <v>2951</v>
       </c>
       <c r="C81">
         <v>1896</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D81" s="4">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>39295</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82">
         <v>3014</v>
       </c>
       <c r="C82">
         <v>2033</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D82" s="4">
+        <v>5382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>39326</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83">
         <v>2691</v>
       </c>
       <c r="C83">
         <v>2188</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83" s="4">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>39356</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84">
         <v>2926</v>
       </c>
       <c r="C84">
         <v>1998</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D84" s="4">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>39387</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85">
         <v>2784</v>
       </c>
       <c r="C85">
         <v>1966</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D85" s="4">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>39417</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86">
         <v>2773</v>
       </c>
       <c r="C86">
         <v>1915</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D86" s="4">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>39448</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87">
         <v>2847</v>
       </c>
       <c r="C87">
         <v>1989</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D87" s="4">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>39479</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88">
         <v>2881</v>
       </c>
       <c r="C88">
         <v>1995</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D88" s="4">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>39508</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89">
         <v>2661</v>
       </c>
       <c r="C89">
         <v>1918</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D89" s="4">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>39539</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90">
         <v>2837</v>
       </c>
       <c r="C90">
         <v>1958</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D90" s="4">
+        <v>5167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>39569</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91">
         <v>2607</v>
       </c>
       <c r="C91">
         <v>1950</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D91" s="4">
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>39600</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92">
         <v>2595</v>
       </c>
       <c r="C92">
         <v>2172</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D92" s="4">
+        <v>5061</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>39630</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93">
         <v>2489</v>
       </c>
       <c r="C93">
         <v>2071</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D93" s="4">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>39661</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94">
         <v>2445</v>
       </c>
       <c r="C94">
         <v>2190</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D94" s="4">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>39692</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95">
         <v>2468</v>
       </c>
       <c r="C95">
         <v>2088</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D95" s="4">
+        <v>4902</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>39722</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96">
         <v>2347</v>
       </c>
       <c r="C96">
         <v>2250</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D96" s="4">
+        <v>4965</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>39753</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97">
         <v>2157</v>
       </c>
       <c r="C97">
         <v>2290</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D97" s="4">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>39783</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98">
         <v>2084</v>
       </c>
       <c r="C98">
         <v>2482</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D98" s="4">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>39814</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99">
         <v>1976</v>
       </c>
       <c r="C99">
         <v>2581</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D99" s="4">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>39845</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100">
         <v>1952</v>
       </c>
       <c r="C100">
         <v>2599</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D100" s="4">
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>39873</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101">
         <v>1834</v>
       </c>
       <c r="C101">
         <v>2575</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D101" s="4">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>39904</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102">
         <v>1712</v>
       </c>
       <c r="C102">
         <v>2654</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D102" s="4">
+        <v>4690</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>39934</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103">
         <v>1683</v>
       </c>
       <c r="C103">
         <v>2231</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D103" s="4">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>39965</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104">
         <v>1685</v>
       </c>
       <c r="C104">
         <v>2261</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D104" s="4">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>39995</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105">
         <v>1685</v>
       </c>
       <c r="C105">
         <v>2267</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D105" s="4">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>40026</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106">
         <v>1555</v>
       </c>
       <c r="C106">
         <v>2119</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D106" s="4">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>40057</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107">
         <v>1627</v>
       </c>
       <c r="C107">
         <v>2195</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D107" s="4">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>40087</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108">
         <v>1660</v>
       </c>
       <c r="C108">
         <v>2028</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D108" s="4">
+        <v>3996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>40118</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109">
         <v>1810</v>
       </c>
       <c r="C109">
         <v>1913</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D109" s="4">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>40148</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110">
         <v>1766</v>
       </c>
       <c r="C110">
         <v>2033</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D110" s="4">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>40179</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111">
         <v>1742</v>
       </c>
       <c r="C111">
         <v>1880</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D111" s="4">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>40210</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112">
         <v>1844</v>
       </c>
       <c r="C112">
         <v>1825</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D112" s="4">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>40238</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113">
         <v>1856</v>
       </c>
       <c r="C113">
         <v>1924</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D113" s="4">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>40269</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114">
         <v>1897</v>
       </c>
       <c r="C114">
         <v>1749</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D114" s="4">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>40299</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115">
         <v>1813</v>
       </c>
       <c r="C115">
         <v>1762</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D115" s="4">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>40330</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116">
         <v>1911</v>
       </c>
       <c r="C116">
         <v>2075</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D116" s="4">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>40360</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117">
         <v>1785</v>
       </c>
       <c r="C117">
         <v>2166</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D117" s="4">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>40391</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118">
         <v>1842</v>
       </c>
       <c r="C118">
         <v>1890</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D118" s="4">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>40422</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119">
         <v>1895</v>
       </c>
       <c r="C119">
         <v>1832</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D119" s="4">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>40452</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120">
         <v>1846</v>
       </c>
       <c r="C120">
         <v>1745</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D120" s="4">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>40483</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121">
         <v>1887</v>
       </c>
       <c r="C121">
         <v>1849</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D121" s="4">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>40513</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122">
         <v>1977</v>
       </c>
       <c r="C122">
         <v>1854</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D122" s="4">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>40544</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123">
         <v>1832</v>
       </c>
       <c r="C123">
         <v>1827</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D123" s="4">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>40575</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124">
         <v>1958</v>
       </c>
       <c r="C124">
         <v>1755</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D124" s="4">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>40603</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125">
         <v>2033</v>
       </c>
       <c r="C125">
         <v>1794</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D125" s="4">
+        <v>4142</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>40634</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126">
         <v>1882</v>
       </c>
       <c r="C126">
         <v>1792</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D126" s="4">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>40664</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127">
         <v>1965</v>
       </c>
       <c r="C127">
         <v>1904</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D127" s="4">
+        <v>4189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>40695</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128">
         <v>1923</v>
       </c>
       <c r="C128">
         <v>1942</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D128" s="4">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>40725</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129">
         <v>1986</v>
       </c>
       <c r="C129">
         <v>1845</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D129" s="4">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>40756</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130">
         <v>2031</v>
       </c>
       <c r="C130">
         <v>1845</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D130" s="4">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>40787</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131">
         <v>2041</v>
       </c>
       <c r="C131">
         <v>1872</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D131" s="4">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>40817</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132">
         <v>1997</v>
       </c>
       <c r="C132">
         <v>1794</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D132" s="4">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>40848</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133">
         <v>2039</v>
       </c>
       <c r="C133">
         <v>1912</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D133" s="4">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>40878</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134">
         <v>1981</v>
       </c>
       <c r="C134">
         <v>1801</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D134" s="4">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>40909</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135">
         <v>2030</v>
       </c>
       <c r="C135">
         <v>1797</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D135" s="4">
+        <v>4158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>40940</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136">
         <v>2130</v>
       </c>
       <c r="C136">
         <v>1903</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D136" s="4">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>40969</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137">
         <v>2167</v>
       </c>
       <c r="C137">
         <v>1784</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D137" s="4">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>41000</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138">
         <v>2134</v>
       </c>
       <c r="C138">
         <v>1880</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D138" s="4">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>41030</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139">
         <v>2138</v>
       </c>
       <c r="C139">
         <v>1969</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D139" s="4">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>41061</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140">
         <v>2152</v>
       </c>
       <c r="C140">
         <v>1892</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D140" s="4">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>41091</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141">
         <v>2072</v>
       </c>
       <c r="C141">
         <v>1722</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D141" s="4">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>41122</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142">
         <v>2069</v>
       </c>
       <c r="C142">
         <v>1894</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D142" s="4">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>41153</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143">
         <v>1950</v>
       </c>
       <c r="C143">
         <v>1805</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D143" s="4">
+        <v>4092</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>41183</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144">
         <v>2035</v>
       </c>
       <c r="C144">
         <v>1891</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D144" s="4">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>41214</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145">
         <v>2078</v>
       </c>
       <c r="C145">
         <v>1921</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D145" s="4">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>41244</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146">
         <v>2051</v>
       </c>
       <c r="C146">
         <v>1700</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D146" s="4">
+        <v>4118</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>41275</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147">
         <v>2280</v>
       </c>
       <c r="C147">
         <v>1678</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D147" s="4">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>41306</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148">
         <v>2298</v>
       </c>
       <c r="C148">
         <v>1664</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D148" s="4">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>41334</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149">
         <v>2124</v>
       </c>
       <c r="C149">
         <v>1787</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D149" s="4">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>41365</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150">
         <v>2296</v>
       </c>
       <c r="C150">
         <v>1793</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D150" s="4">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>41395</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151">
         <v>2234</v>
       </c>
       <c r="C151">
         <v>1836</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D151" s="4">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>41426</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152">
         <v>2203</v>
       </c>
       <c r="C152">
         <v>1761</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D152" s="4">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>41456</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153">
         <v>2363</v>
       </c>
       <c r="C153">
         <v>1713</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D153" s="4">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>41487</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154">
         <v>2316</v>
       </c>
       <c r="C154">
         <v>1816</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D154" s="4">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>41518</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155">
         <v>2302</v>
       </c>
       <c r="C155">
         <v>1892</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D155" s="4">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>41548</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156">
         <v>2372</v>
       </c>
       <c r="C156">
         <v>1675</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D156" s="4">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>41579</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157">
         <v>2391</v>
       </c>
       <c r="C157">
         <v>1630</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D157" s="4">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>41609</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158">
         <v>2287</v>
       </c>
       <c r="C158">
         <v>1770</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D158" s="4">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>41640</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159">
         <v>2311</v>
       </c>
       <c r="C159">
         <v>1806</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D159" s="4">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>41671</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160">
         <v>2411</v>
       </c>
       <c r="C160">
         <v>1767</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D160" s="4">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>41699</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161">
         <v>2449</v>
       </c>
       <c r="C161">
         <v>1703</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D161" s="4">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>41730</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162">
         <v>2474</v>
       </c>
       <c r="C162">
         <v>1764</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D162" s="4">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>41760</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163">
         <v>2483</v>
       </c>
       <c r="C163">
         <v>1710</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D163" s="4">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>41791</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164">
         <v>2507</v>
       </c>
       <c r="C164">
         <v>1761</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D164" s="4">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>41821</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165">
         <v>2633</v>
       </c>
       <c r="C165">
         <v>1781</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D165" s="4">
+        <v>4748</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>41852</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166">
         <v>2549</v>
       </c>
       <c r="C166">
         <v>1699</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D166" s="4">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>41883</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167">
         <v>2732</v>
       </c>
       <c r="C167">
         <v>1718</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D167" s="4">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>41913</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168">
         <v>2718</v>
       </c>
       <c r="C168">
         <v>1835</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D168" s="4">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>41944</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169">
         <v>2600</v>
       </c>
       <c r="C169">
         <v>1726</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D169" s="4">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>41974</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170">
         <v>2552</v>
       </c>
       <c r="C170">
         <v>1857</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D170" s="4">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>42005</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171">
         <v>2764</v>
       </c>
       <c r="C171">
         <v>1789</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D171" s="4">
+        <v>4886</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>42036</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172">
         <v>2741</v>
       </c>
       <c r="C172">
         <v>1757</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D172" s="4">
+        <v>4869</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>42064</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173">
         <v>2754</v>
       </c>
       <c r="C173">
         <v>1973</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D173" s="4">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>42095</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174">
         <v>2705</v>
       </c>
       <c r="C174">
         <v>1856</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D174" s="4">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>42125</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175">
         <v>2743</v>
       </c>
       <c r="C175">
         <v>1711</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D175" s="4">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>42156</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176">
         <v>2756</v>
       </c>
       <c r="C176">
         <v>1821</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D176" s="4">
+        <v>4978</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>42186</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177">
         <v>2764</v>
       </c>
       <c r="C177">
         <v>1703</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D177" s="4">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>42217</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178">
         <v>2879</v>
       </c>
       <c r="C178">
         <v>1773</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D178" s="4">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>42248</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179">
         <v>2778</v>
       </c>
       <c r="C179">
         <v>1964</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D179" s="4">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>42278</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180">
         <v>2810</v>
       </c>
       <c r="C180">
         <v>1845</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D180" s="4">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>42309</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181">
         <v>2897</v>
       </c>
       <c r="C181">
         <v>1779</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D181" s="4">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>42339</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182">
         <v>3056</v>
       </c>
       <c r="C182">
         <v>1803</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D182" s="4">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>42370</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183">
         <v>2875</v>
       </c>
       <c r="C183">
         <v>1805</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D183" s="4">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>42401</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184">
         <v>2994</v>
       </c>
       <c r="C184">
         <v>1894</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D184" s="4">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>42430</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185">
         <v>2917</v>
       </c>
       <c r="C185">
         <v>1850</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D185" s="4">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>42461</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186">
         <v>2955</v>
       </c>
       <c r="C186">
         <v>1771</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D186" s="4">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>42491</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187">
         <v>3009</v>
       </c>
       <c r="C187">
         <v>1825</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D187" s="4">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>42522</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188">
         <v>3018</v>
       </c>
       <c r="C188">
         <v>1750</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D188" s="4">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>42552</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189">
         <v>2967</v>
       </c>
       <c r="C189">
         <v>1759</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D189" s="4">
+        <v>5065</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>42583</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190">
         <v>2998</v>
       </c>
       <c r="C190">
         <v>1860</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D190" s="4">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>42614</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191">
         <v>3047</v>
       </c>
       <c r="C191">
         <v>1588</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D191" s="4">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>42644</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192">
         <v>3074</v>
       </c>
       <c r="C192">
         <v>1664</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D192" s="4">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>42675</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193">
         <v>3026</v>
       </c>
       <c r="C193">
         <v>1751</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D193" s="4">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>42705</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194">
         <v>2989</v>
       </c>
       <c r="C194">
         <v>1708</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D194" s="4">
+        <v>5071</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>42736</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195">
         <v>3188</v>
       </c>
       <c r="C195">
         <v>1745</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D195" s="4">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>42767</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196">
         <v>3089</v>
       </c>
       <c r="C196">
         <v>1711</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D196" s="4">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>42795</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197">
         <v>3150</v>
       </c>
       <c r="C197">
         <v>1762</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D197" s="4">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>42826</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198">
         <v>3028</v>
       </c>
       <c r="C198">
         <v>1710</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D198" s="4">
+        <v>5091</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>42856</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199">
         <v>3111</v>
       </c>
       <c r="C199">
         <v>1794</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D199" s="4">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>42887</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200">
         <v>3154</v>
       </c>
       <c r="C200">
         <v>1970</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D200" s="4">
+        <v>5463</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>42917</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201">
         <v>3097</v>
       </c>
       <c r="C201">
         <v>1910</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D201" s="4">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>42948</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202">
         <v>3103</v>
       </c>
       <c r="C202">
         <v>1868</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D202" s="4">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>42979</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203">
         <v>3190</v>
       </c>
       <c r="C203">
         <v>1787</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D203" s="4">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>43009</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204">
         <v>3219</v>
       </c>
       <c r="C204">
         <v>1837</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D204" s="4">
+        <v>5397</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>43040</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205">
         <v>3186</v>
       </c>
       <c r="C205">
         <v>1747</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D205" s="4">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>43070</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206">
         <v>3222</v>
       </c>
       <c r="C206">
         <v>1732</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D206" s="4">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>43101</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207">
         <v>3019</v>
       </c>
       <c r="C207">
         <v>1932</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D207" s="4">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>43132</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208">
         <v>3222</v>
       </c>
       <c r="C208">
         <v>1771</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D208" s="4">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>43160</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209">
         <v>3323</v>
       </c>
       <c r="C209">
         <v>1795</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D209" s="4">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>43191</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210">
         <v>3370</v>
       </c>
       <c r="C210">
         <v>1727</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D210" s="4">
+        <v>5441</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>43221</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211">
         <v>3382</v>
       </c>
       <c r="C211">
         <v>1775</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D211" s="4">
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>43252</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212">
         <v>3382</v>
       </c>
       <c r="C212">
         <v>1822</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D212" s="4">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>43282</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213">
         <v>3426</v>
       </c>
       <c r="C213">
         <v>1806</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D213" s="4">
+        <v>5577</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>43313</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214">
         <v>3423</v>
       </c>
       <c r="C214">
         <v>1803</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D214" s="4">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>43344</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215">
         <v>3391</v>
       </c>
       <c r="C215">
         <v>1764</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D215" s="4">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>43374</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216">
         <v>3458</v>
       </c>
       <c r="C216">
         <v>1813</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D216" s="4">
+        <v>5602</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>43405</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217">
         <v>3511</v>
       </c>
       <c r="C217">
         <v>1938</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D217" s="4">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>43435</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218">
         <v>3407</v>
       </c>
       <c r="C218">
         <v>1839</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D218" s="4">
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>43466</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219">
         <v>3517</v>
       </c>
       <c r="C219">
         <v>1705</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D219" s="4">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>43497</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220">
         <v>3547</v>
       </c>
       <c r="C220">
         <v>1763</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D220" s="4">
+        <v>5653</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>43525</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221">
         <v>3529</v>
       </c>
       <c r="C221">
         <v>1690</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D221" s="4">
+        <v>5543</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>43556</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222">
         <v>3501</v>
       </c>
       <c r="C222">
         <v>1963</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D222" s="4">
+        <v>5777</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>43586</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223">
         <v>3472</v>
       </c>
       <c r="C223">
         <v>1775</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D223" s="4">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>43617</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224">
         <v>3474</v>
       </c>
       <c r="C224">
         <v>1780</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D224" s="4">
+        <v>5574</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>43647</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225">
         <v>3654</v>
       </c>
       <c r="C225">
         <v>1833</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D225" s="4">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>43678</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226">
         <v>3540</v>
       </c>
       <c r="C226">
         <v>1808</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D226" s="4">
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>43709</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227">
         <v>3447</v>
       </c>
       <c r="C227">
         <v>1970</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D227" s="4">
+        <v>5755</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>43739</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228">
         <v>3452</v>
       </c>
       <c r="C228">
         <v>1819</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D228" s="4">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>43770</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229">
         <v>3541</v>
       </c>
       <c r="C229">
         <v>1782</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D229" s="4">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>43800</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230">
         <v>3487</v>
       </c>
       <c r="C230">
         <v>1931</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D230" s="4">
+        <v>5771</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>43831</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231">
         <v>3563</v>
       </c>
       <c r="C231">
         <v>1808</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D231" s="4">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>43862</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232">
         <v>3497</v>
       </c>
       <c r="C232">
         <v>1954</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D232" s="4">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>43891</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233">
         <v>2933</v>
       </c>
       <c r="C233">
         <v>12985</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D233" s="4">
+        <v>16275</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>43922</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234">
         <v>1991</v>
       </c>
       <c r="C234">
         <v>9170</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D234" s="4">
+        <v>11531</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>43952</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235">
         <v>2259</v>
       </c>
       <c r="C235">
         <v>2139</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D235" s="4">
+        <v>4718</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>43983</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236">
         <v>2594</v>
       </c>
       <c r="C236">
         <v>2245</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D236" s="4">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>44013</v>
       </c>
-      <c r="B237" s="4">
+      <c r="B237">
         <v>3020</v>
       </c>
       <c r="C237">
         <v>1827</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D237" s="4">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>44044</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238">
         <v>2931</v>
       </c>
       <c r="C238">
         <v>1560</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D238" s="4">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>44075</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239">
         <v>3185</v>
       </c>
       <c r="C239">
         <v>1567</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D239" s="4">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>44105</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240">
         <v>3311</v>
       </c>
       <c r="C240">
         <v>1697</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D240" s="4">
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>44136</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241">
         <v>3209</v>
       </c>
       <c r="C241">
         <v>2097</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D241" s="4">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>44166</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242">
         <v>3369</v>
       </c>
       <c r="C242">
         <v>1906</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D242" s="4">
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>44197</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243">
         <v>3285</v>
       </c>
       <c r="C243">
         <v>1657</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D243" s="4">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>44228</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244">
         <v>3429</v>
       </c>
       <c r="C244">
         <v>1625</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D244" s="4">
+        <v>5381</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>44256</v>
       </c>
-      <c r="B245" s="4">
+      <c r="B245">
         <v>3661</v>
       </c>
       <c r="C245">
         <v>1488</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D245" s="4">
+        <v>5477</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>44287</v>
       </c>
-      <c r="B246" s="4">
+      <c r="B246">
         <v>3909</v>
       </c>
       <c r="C246">
         <v>1430</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D246" s="4">
+        <v>5693</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>44317</v>
       </c>
-      <c r="B247" s="4">
+      <c r="B247">
         <v>3836</v>
       </c>
       <c r="C247">
         <v>1352</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D247" s="4">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>44348</v>
       </c>
-      <c r="B248" s="4">
+      <c r="B248">
         <v>3985</v>
       </c>
       <c r="C248">
         <v>1299</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D248" s="4">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>44378</v>
       </c>
-      <c r="B249" s="4">
+      <c r="B249">
         <v>4031</v>
       </c>
       <c r="C249">
         <v>1390</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D249" s="4">
+        <v>5756</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>44409</v>
       </c>
-      <c r="B250" s="4">
+      <c r="B250">
         <v>4122</v>
       </c>
       <c r="C250">
         <v>1338</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D250" s="4">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>44440</v>
       </c>
-      <c r="B251" s="4">
+      <c r="B251">
         <v>4320</v>
       </c>
       <c r="C251">
         <v>1428</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D251" s="4">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>44470</v>
       </c>
-      <c r="B252" s="4">
+      <c r="B252">
         <v>4131</v>
       </c>
       <c r="C252">
         <v>1285</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D252" s="4">
+        <v>5808</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>44501</v>
       </c>
-      <c r="B253" s="4">
+      <c r="B253">
         <v>4491</v>
       </c>
       <c r="C253">
         <v>1368</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D253" s="4">
+        <v>6247</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>44531</v>
       </c>
-      <c r="B254" s="4">
+      <c r="B254">
         <v>4387</v>
       </c>
       <c r="C254">
         <v>1376</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D254" s="4">
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>44562</v>
       </c>
-      <c r="B255" s="4">
+      <c r="B255">
         <v>4404</v>
       </c>
       <c r="C255">
         <v>1434</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D255" s="4">
+        <v>6265</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>44593</v>
       </c>
-      <c r="B256" s="4">
+      <c r="B256">
         <v>4321</v>
       </c>
       <c r="C256">
         <v>1420</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D256" s="4">
+        <v>6081</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>44621</v>
       </c>
-      <c r="B257" s="4">
+      <c r="B257">
         <v>4499</v>
       </c>
       <c r="C257">
         <v>1383</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D257" s="4">
+        <v>6235</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>44652</v>
       </c>
-      <c r="B258" s="4">
+      <c r="B258">
         <v>4457</v>
       </c>
       <c r="C258">
         <v>1353</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D258" s="4">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>44682</v>
       </c>
-      <c r="B259" s="4">
+      <c r="B259">
         <v>4259</v>
       </c>
       <c r="C259">
         <v>1509</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D259" s="4">
+        <v>6115</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>44713</v>
       </c>
-      <c r="B260" s="4">
+      <c r="B260">
         <v>4139</v>
       </c>
       <c r="C260">
         <v>1497</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D260" s="4">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>44743</v>
       </c>
-      <c r="B261" s="4">
+      <c r="B261">
         <v>4005</v>
       </c>
       <c r="C261">
         <v>1459</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D261" s="4">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>44774</v>
       </c>
-      <c r="B262" s="4">
+      <c r="B262">
         <v>4200</v>
       </c>
       <c r="C262">
         <v>1609</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D262" s="4">
+        <v>6181</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>44805</v>
       </c>
-      <c r="B263" s="4">
+      <c r="B263">
         <v>4111</v>
       </c>
       <c r="C263">
         <v>1443</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D263" s="4">
+        <v>5862</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>44835</v>
       </c>
-      <c r="B264" s="4">
+      <c r="B264">
         <v>3945</v>
       </c>
       <c r="C264">
         <v>1539</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D264" s="4">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>44866</v>
       </c>
-      <c r="B265" s="4">
+      <c r="B265">
         <v>4080</v>
       </c>
       <c r="C265">
         <v>1461</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D265" s="4">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>44896</v>
       </c>
-      <c r="B266" s="4">
+      <c r="B266">
         <v>4173</v>
       </c>
       <c r="C266">
         <v>1520</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D266" s="4">
+        <v>6029</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>44927</v>
       </c>
-      <c r="B267" s="4">
+      <c r="B267">
         <v>3833</v>
       </c>
       <c r="C267">
         <v>1904</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D267" s="4">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>44958</v>
       </c>
-      <c r="B268" s="4">
+      <c r="B268">
         <v>3926</v>
       </c>
       <c r="C268">
         <v>1539</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D268" s="4">
+        <v>5770</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>44986</v>
       </c>
-      <c r="B269" s="4">
+      <c r="B269">
         <v>3820</v>
       </c>
       <c r="C269">
         <v>1814</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D269" s="4">
+        <v>5910</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>45017</v>
       </c>
-      <c r="B270" s="4">
+      <c r="B270">
         <v>3619</v>
       </c>
       <c r="C270">
         <v>1686</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D270" s="4">
+        <v>5612</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>45047</v>
       </c>
-      <c r="B271" s="4">
+      <c r="B271">
         <v>4013</v>
       </c>
       <c r="C271">
         <v>1519</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D271" s="4">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>45078</v>
       </c>
-      <c r="B272" s="4">
+      <c r="B272">
         <v>3689</v>
       </c>
       <c r="C272">
         <v>1637</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D272" s="4">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>45108</v>
       </c>
-      <c r="B273" s="4">
+      <c r="B273">
         <v>3562</v>
       </c>
       <c r="C273">
         <v>1675</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D273" s="4">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>45139</v>
       </c>
-      <c r="B274" s="4">
+      <c r="B274">
         <v>3618</v>
       </c>
       <c r="C274">
         <v>1691</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D274" s="4">
+        <v>5661</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>45170</v>
       </c>
-      <c r="B275" s="4">
+      <c r="B275">
         <v>3638</v>
       </c>
       <c r="C275">
         <v>1561</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D275" s="4">
+        <v>5533</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>45200</v>
       </c>
-      <c r="B276" s="4">
+      <c r="B276">
         <v>3558</v>
       </c>
       <c r="C276">
         <v>1621</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D276" s="4">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>45231</v>
       </c>
-      <c r="B277" s="4">
+      <c r="B277">
         <v>3549</v>
       </c>
       <c r="C277">
         <v>1526</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D277" s="4">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>45261</v>
       </c>
-      <c r="B278" s="4">
+      <c r="B278">
         <v>3370</v>
       </c>
       <c r="C278">
         <v>1648</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D278" s="4">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>45292</v>
       </c>
-      <c r="B279" s="4">
+      <c r="B279">
         <v>3353</v>
       </c>
       <c r="C279">
         <v>1692</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D279" s="4">
+        <v>5429</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>45323</v>
       </c>
-      <c r="B280" s="4">
+      <c r="B280">
         <v>3468</v>
       </c>
       <c r="C280">
         <v>1681</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D280" s="4">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>45352</v>
       </c>
-      <c r="B281" s="4">
+      <c r="B281">
         <v>3329</v>
       </c>
       <c r="C281">
         <v>1614</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D281" s="4">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>45383</v>
       </c>
-      <c r="B282" s="4">
+      <c r="B282">
         <v>3414</v>
       </c>
       <c r="C282">
         <v>1587</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D282" s="4">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>45413</v>
       </c>
-      <c r="B283" s="4">
+      <c r="B283">
         <v>3355</v>
       </c>
       <c r="C283">
         <v>1665</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D283" s="4">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>45444</v>
       </c>
-      <c r="B284" s="4">
+      <c r="B284">
         <v>3284</v>
       </c>
       <c r="C284">
         <v>1467</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D284" s="4">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>45474</v>
       </c>
-      <c r="B285" s="4">
+      <c r="B285">
         <v>3390</v>
       </c>
       <c r="C285">
         <v>1745</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D285" s="4">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>45505</v>
       </c>
-      <c r="B286" s="4">
+      <c r="B286">
         <v>3177</v>
       </c>
       <c r="C286">
         <v>1697</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D286" s="4">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>45536</v>
       </c>
-      <c r="B287" s="4">
+      <c r="B287">
         <v>3085</v>
       </c>
       <c r="C287">
         <v>1844</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D287" s="4">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>45566</v>
       </c>
-      <c r="B288" s="4">
+      <c r="B288">
         <v>3217</v>
       </c>
       <c r="C288">
         <v>1788</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D288" s="4">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>45597</v>
       </c>
-      <c r="B289" s="4">
+      <c r="B289">
         <v>3032</v>
       </c>
       <c r="C289">
         <v>1739</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D289" s="4">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>45627</v>
       </c>
-      <c r="B290" s="4">
+      <c r="B290">
         <v>3095</v>
       </c>
       <c r="C290">
         <v>1669</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D290" s="4">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>45658</v>
       </c>
-      <c r="B291" s="4">
+      <c r="B291">
         <v>3256</v>
       </c>
       <c r="C291">
         <v>1674</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D291" s="4">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>45689</v>
       </c>
-      <c r="B292" s="4">
+      <c r="B292">
         <v>3250</v>
       </c>
       <c r="C292">
         <v>1780</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D292" s="4">
+        <v>5316</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>45717</v>
       </c>
-      <c r="B293" s="4">
+      <c r="B293">
         <v>3332</v>
       </c>
       <c r="C293">
         <v>1558</v>
+      </c>
+      <c r="D293" s="4">
+        <v>5137</v>
       </c>
     </row>
   </sheetData>
